--- a/таблицы тест кейсо вк дз 6..xlsx
+++ b/таблицы тест кейсо вк дз 6..xlsx
@@ -535,6 +535,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -973,7 +974,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.16"/>
   </cols>
@@ -1024,12 +1025,12 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="7" topLeftCell="L33" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="7" topLeftCell="L8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.5"/>
@@ -1144,7 +1145,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1158,7 +1159,9 @@
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="10" t="n">
+        <v>44012</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="10"/>
       <c r="O3" s="5"/>
@@ -3154,7 +3157,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="47" t="s">
